--- a/data/element_labels.xlsx
+++ b/data/element_labels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dskoda/Dropbox (MIT)/classes/3.321/project/ML/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F3BD058-053A-1642-8E61-0E9A52DB6416}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEA27946-47FA-0044-81F5-07D216250927}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{6DDA2E39-34A6-0B43-8B5F-C6F06A4DD882}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{6DDA2E39-34A6-0B43-8B5F-C6F06A4DD882}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
   <si>
     <t>element</t>
   </si>
@@ -151,6 +151,12 @@
   </si>
   <si>
     <t>CeO2</t>
+  </si>
+  <si>
+    <t>Y_Ta</t>
+  </si>
+  <si>
+    <t>YTaO4</t>
   </si>
 </sst>
 </file>
@@ -523,7 +529,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="189" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -567,7 +573,7 @@
         <v>3.1</v>
       </c>
       <c r="E2">
-        <f>IF(C2=1, D2, 100 * C2*(D2) / (100 + C2 * (D2)))</f>
+        <f t="shared" ref="E2:E14" si="0">IF(C2=1, D2, 100 * C2*(D2) / (100 + C2 * (D2)))</f>
         <v>5.8380414312617699</v>
       </c>
       <c r="F2" t="s">
@@ -588,7 +594,7 @@
         <v>5</v>
       </c>
       <c r="E3">
-        <f>IF(C3=1, D3, 100 * C3*(D3) / (100 + C3 * (D3)))</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="F3" t="s">
@@ -609,7 +615,7 @@
         <v>15</v>
       </c>
       <c r="E4">
-        <f>IF(C4=1, D4, 100 * C4*(D4) / (100 + C4 * (D4)))</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="F4" t="s">
@@ -630,7 +636,7 @@
         <v>5.4</v>
       </c>
       <c r="E5">
-        <f>IF(C5=1, D5, 100 * C5*(D5) / (100 + C5 * (D5)))</f>
+        <f t="shared" si="0"/>
         <v>9.7472924187725631</v>
       </c>
       <c r="F5" t="s">
@@ -651,7 +657,7 @@
         <v>1.3</v>
       </c>
       <c r="E6">
-        <f>IF(C6=1, D6, 100 * C6*(D6) / (100 + C6 * (D6)))</f>
+        <f t="shared" si="0"/>
         <v>2.53411306042885</v>
       </c>
       <c r="F6" t="s">
@@ -672,7 +678,7 @@
         <v>100</v>
       </c>
       <c r="E7">
-        <f>IF(C7=1, D7, 100 * C7*(D7) / (100 + C7 * (D7)))</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="F7" t="s">
@@ -693,7 +699,7 @@
         <v>0.3</v>
       </c>
       <c r="E8">
-        <f>IF(C8=1, D8, 100 * C8*(D8) / (100 + C8 * (D8)))</f>
+        <f t="shared" si="0"/>
         <v>0.59642147117296229</v>
       </c>
       <c r="F8" t="s">
@@ -714,7 +720,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <f>IF(C9=1, D9, 100 * C9*(D9) / (100 + C9 * (D9)))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F9" t="s">
@@ -735,7 +741,7 @@
         <v>3.3</v>
       </c>
       <c r="E10">
-        <f>IF(C10=1, D10, 100 * C10*(D10) / (100 + C10 * (D10)))</f>
+        <f t="shared" si="0"/>
         <v>3.3</v>
       </c>
       <c r="F10" t="s">
@@ -756,7 +762,7 @@
         <v>18</v>
       </c>
       <c r="E11">
-        <f>IF(C11=1, D11, 100 * C11*(D11) / (100 + C11 * (D11)))</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="F11" t="s">
@@ -777,7 +783,7 @@
         <v>1.5</v>
       </c>
       <c r="E12">
-        <f>IF(C12=1, D12, 100 * C12*(D12) / (100 + C12 * (D12)))</f>
+        <f t="shared" si="0"/>
         <v>2.912621359223301</v>
       </c>
       <c r="F12" t="s">
@@ -798,7 +804,7 @@
         <v>100</v>
       </c>
       <c r="E13">
-        <f>IF(C13=1, D13, 100 * C13*(D13) / (100 + C13 * (D13)))</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="F13" t="s">
@@ -806,9 +812,25 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="1"/>
+      <c r="A14" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="F14" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
